--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malik/IdeaProjects/Team1SeleniumBootcamp/com.mbusa/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9398D4-86F7-C741-90E2-6DF1883349A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD5958-89EE-3D44-A187-C3312BBB2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{70109359-A4A6-AB4D-91FE-7876A3C3BB6F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Find New Inventory</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz SUVs</t>
+  </si>
+  <si>
+    <t>Quick Facts</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Bluetec Update</t>
   </si>
 </sst>
 </file>
@@ -399,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EA02F2-0F02-2F40-99D4-F45AAD2A92D5}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -435,6 +444,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malik/IdeaProjects/Team1SeleniumBootcamp/com.mbusa/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD5958-89EE-3D44-A187-C3312BBB2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9953970-FFCC-5848-BDEC-74B058E6B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{70109359-A4A6-AB4D-91FE-7876A3C3BB6F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Mercedes-Benz Bluetec Update</t>
+  </si>
+  <si>
+    <t>Apply for financing in under 10 minutes.</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
 </sst>
 </file>
@@ -408,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EA02F2-0F02-2F40-99D4-F45AAD2A92D5}">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -459,6 +465,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
